--- a/03_Arthrobacter_Growth/input/Bacterial_growth_D600.xlsx
+++ b/03_Arthrobacter_Growth/input/Bacterial_growth_D600.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomohisa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomohisa/Desktop/Shimasaki_et_al_2026/03_Arthrobacter_Growth/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E713B33E-4F11-CB40-8B5A-AD827DF5E80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC77E23-6D5B-4448-9C09-1D9E2404A04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-10180" windowWidth="21600" windowHeight="38400" xr2:uid="{839F6181-B360-C64E-919E-91F7B4840AD0}"/>
+    <workbookView xWindow="28800" yWindow="-9680" windowWidth="21600" windowHeight="37900" xr2:uid="{839F6181-B360-C64E-919E-91F7B4840AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Sample 1</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Sample 18</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -937,12 +940,15 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
       <c r="B1">
         <v>0</v>
       </c>
